--- a/Modello/nuovi modelli/inputTesiOriginali/test4/Soluzioni-2.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test4/Soluzioni-2.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10450" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50373" uniqueCount="925">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test4/Soluzioni-2.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test4/Soluzioni-2.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50373" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71722" uniqueCount="925">
   <si>
     <t>ANSPs</t>
   </si>
@@ -31858,34 +31858,34 @@
         <v>89</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>89</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>89</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>89</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>89</v>
@@ -31912,7 +31912,7 @@
         <v>89</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="Y10" s="5" t="s">
         <v>89</v>
@@ -31930,7 +31930,7 @@
         <v>89</v>
       </c>
       <c r="AD10" s="5" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="AE10" s="5" t="s">
         <v>89</v>
@@ -31939,13 +31939,13 @@
         <v>89</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="AH10" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AI10" s="5" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="AJ10" s="5" t="s">
         <v>89</v>
@@ -32310,28 +32310,28 @@
         <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>89</v>
@@ -32340,37 +32340,37 @@
         <v>89</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="W14" s="5" t="s">
         <v>89</v>
@@ -32379,19 +32379,19 @@
         <v>89</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="AB14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="AD14" s="5" t="s">
         <v>89</v>
@@ -32400,25 +32400,25 @@
         <v>89</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="AI14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
       <c r="AL14" s="5" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
     </row>
     <row r="15">
@@ -33934,73 +33934,73 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>89</v>
@@ -34012,34 +34012,34 @@
         <v>89</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="AF28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="AK28" s="5" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="AL28" s="5" t="s">
         <v>89</v>
@@ -35210,115 +35210,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="40">
@@ -35326,115 +35326,115 @@
         <v>85</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41">
@@ -35442,115 +35442,115 @@
         <v>86</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>118</v>
+        <v>255</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>118</v>
+        <v>286</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>118</v>
+        <v>309</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>118</v>
+        <v>326</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>118</v>
+        <v>342</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>118</v>
+        <v>382</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>118</v>
+        <v>416</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>118</v>
+        <v>440</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>118</v>
+        <v>470</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>118</v>
+        <v>496</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>118</v>
+        <v>522</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>118</v>
+        <v>549</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>118</v>
+        <v>574</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>118</v>
+        <v>596</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>118</v>
+        <v>623</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>118</v>
+        <v>650</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>118</v>
+        <v>661</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>118</v>
+        <v>674</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>118</v>
+        <v>692</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>118</v>
+        <v>722</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>118</v>
+        <v>747</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>118</v>
+        <v>768</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>118</v>
+        <v>781</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>118</v>
+        <v>810</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>118</v>
+        <v>838</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>118</v>
+        <v>864</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>118</v>
+        <v>889</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>118</v>
+        <v>916</v>
       </c>
     </row>
     <row r="42">
